--- a/Data_Files/Summary_Table.xlsx
+++ b/Data_Files/Summary_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Wind Tunnel\Results\Overall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{27B99767-656E-42ED-A1FD-69773226CD96}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2C33856-3D4F-45DB-B918-D39E361E41D9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="9480" firstSheet="1" activeTab="4" xr2:uid="{601A5C68-0C52-4405-9962-8F927445EC61}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18405" windowHeight="9480" firstSheet="2" activeTab="3" xr2:uid="{601A5C68-0C52-4405-9962-8F927445EC61}"/>
   </bookViews>
   <sheets>
     <sheet name="Bakers Blue Spruce" sheetId="4" r:id="rId1"/>
@@ -236,31 +236,31 @@
     <t>Robin Red Holly,Cut 3 (PD)</t>
   </si>
   <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>Drag Coefficient</t>
-  </si>
-  <si>
-    <t>Drag Coefficient Uncertainty</t>
-  </si>
-  <si>
-    <t>White Fraction (x100)</t>
-  </si>
-  <si>
-    <t>White Fraction Uncertainty (x100)</t>
-  </si>
-  <si>
-    <t>Solid Fraction (x100)</t>
-  </si>
-  <si>
-    <t>Kappa (m^-1)</t>
-  </si>
-  <si>
-    <t>Kappa Uncertainty (m^-1)</t>
-  </si>
-  <si>
-    <t>Solid Fraction Uncertainty (x100)</t>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Drag_Coefficient</t>
+  </si>
+  <si>
+    <t>Drag_Coefficient_Uncertainty</t>
+  </si>
+  <si>
+    <t>White_Fraction</t>
+  </si>
+  <si>
+    <t>White_Fraction_Uncertainty</t>
+  </si>
+  <si>
+    <t>Kappa</t>
+  </si>
+  <si>
+    <t>Kappa_Uncertainty</t>
+  </si>
+  <si>
+    <t>Solid_Fraction</t>
+  </si>
+  <si>
+    <t>Solid_Fraction_Uncertainty</t>
   </si>
 </sst>
 </file>
@@ -637,14 +637,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -664,13 +664,13 @@
         <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>76</v>
@@ -684,7 +684,7 @@
         <v>3.5805415526717899</v>
       </c>
       <c r="C2" s="2">
-        <v>0.39745370217342002</v>
+        <v>0.84569821601702799</v>
       </c>
       <c r="D2" s="3">
         <v>28.034626293193398</v>
@@ -702,7 +702,7 @@
         <v>1.9120000000000001</v>
       </c>
       <c r="I2" s="2">
-        <v>2.9203377208000002E-2</v>
+        <v>4.1188017375999995E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -713,7 +713,7 @@
         <v>3.1481390177731399</v>
       </c>
       <c r="C3" s="2">
-        <v>0.40001119690376702</v>
+        <v>0.80878300304169404</v>
       </c>
       <c r="D3" s="3">
         <v>24.2269794849547</v>
@@ -731,7 +731,7 @@
         <v>1.9120000000000001</v>
       </c>
       <c r="I3" s="2">
-        <v>2.9203377208000002E-2</v>
+        <v>4.1188017375999995E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -742,7 +742,7 @@
         <v>3.10374316772474</v>
       </c>
       <c r="C4" s="2">
-        <v>0.370323145548757</v>
+        <v>0.75853942104478</v>
       </c>
       <c r="D4" s="3">
         <v>28.643460271626697</v>
@@ -760,7 +760,7 @@
         <v>1.9120000000000001</v>
       </c>
       <c r="I4" s="2">
-        <v>2.9203377208000002E-2</v>
+        <v>4.1188017375999995E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -771,7 +771,7 @@
         <v>3.0374022166227501</v>
       </c>
       <c r="C5" s="2">
-        <v>0.38369324271202099</v>
+        <v>0.77606240159509299</v>
       </c>
       <c r="D5" s="3">
         <v>24.4716478696742</v>
@@ -789,7 +789,7 @@
         <v>1.9120000000000001</v>
       </c>
       <c r="I5" s="2">
-        <v>2.9203377208000002E-2</v>
+        <v>4.1188017375999995E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -800,7 +800,7 @@
         <v>3.7201210727431202</v>
       </c>
       <c r="C6" s="2">
-        <v>0.37477558798148902</v>
+        <v>0.82090138722684602</v>
       </c>
       <c r="D6" s="3">
         <v>30.534674054842998</v>
@@ -818,7 +818,7 @@
         <v>1.7631999999999999</v>
       </c>
       <c r="I6" s="2">
-        <v>2.7967999999999996E-2</v>
+        <v>3.9877039999999996E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -829,7 +829,7 @@
         <v>2.9762916467477898</v>
       </c>
       <c r="C7" s="2">
-        <v>0.35132184837845498</v>
+        <v>0.72615083635147804</v>
       </c>
       <c r="D7" s="3">
         <v>27.352560815539402</v>
@@ -847,7 +847,7 @@
         <v>1.7631999999999999</v>
       </c>
       <c r="I7" s="2">
-        <v>2.7967999999999996E-2</v>
+        <v>3.9877039999999996E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>3.0699795602684401</v>
       </c>
       <c r="C8" s="2">
-        <v>0.314113165542525</v>
+        <v>0.68111706462014898</v>
       </c>
       <c r="D8" s="3">
         <v>31.5987051889071</v>
@@ -876,7 +876,7 @@
         <v>1.7631999999999999</v>
       </c>
       <c r="I8" s="2">
-        <v>2.7967999999999996E-2</v>
+        <v>3.9877039999999996E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -887,7 +887,7 @@
         <v>3.59735426530235</v>
       </c>
       <c r="C9" s="2">
-        <v>0.381424362341995</v>
+        <v>0.82567586434624896</v>
       </c>
       <c r="D9" s="3">
         <v>28.370684026577596</v>
@@ -905,7 +905,7 @@
         <v>1.7631999999999999</v>
       </c>
       <c r="I9" s="2">
-        <v>2.7967999999999996E-2</v>
+        <v>3.9877039999999996E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -916,7 +916,7 @@
         <v>3.1927946657433699</v>
       </c>
       <c r="C10" s="2">
-        <v>0.29684309604912601</v>
+        <v>0.65971315909195605</v>
       </c>
       <c r="D10" s="3">
         <v>48.190130010920598</v>
@@ -934,7 +934,7 @@
         <v>1.1560000000000001</v>
       </c>
       <c r="I10" s="2">
-        <v>2.3581859704000001E-2</v>
+        <v>3.6242095999999994E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -945,7 +945,7 @@
         <v>2.6482439117878598</v>
       </c>
       <c r="C11" s="2">
-        <v>0.26188523828468202</v>
+        <v>0.56944901991618202</v>
       </c>
       <c r="D11" s="3">
         <v>44.741564967695602</v>
@@ -963,7 +963,7 @@
         <v>1.1560000000000001</v>
       </c>
       <c r="I11" s="2">
-        <v>2.3581859704000001E-2</v>
+        <v>3.6242095999999994E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -974,7 +974,7 @@
         <v>2.46711575390932</v>
       </c>
       <c r="C12" s="2">
-        <v>0.245600174628165</v>
+        <v>0.52992631597826001</v>
       </c>
       <c r="D12" s="3">
         <v>46.690807445524399</v>
@@ -992,7 +992,7 @@
         <v>1.1560000000000001</v>
       </c>
       <c r="I12" s="2">
-        <v>2.3581859704000001E-2</v>
+        <v>3.6242095999999994E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
         <v>2.8304970865288901</v>
       </c>
       <c r="C13" s="2">
-        <v>0.26360353111443002</v>
+        <v>0.58829072795039195</v>
       </c>
       <c r="D13" s="3">
         <v>43.993517295134197</v>
@@ -1021,7 +1021,7 @@
         <v>1.1560000000000001</v>
       </c>
       <c r="I13" s="2">
-        <v>2.3581859704000001E-2</v>
+        <v>3.6242095999999994E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <v>2.5050001493312899</v>
       </c>
       <c r="C14" s="2">
-        <v>0.335127636046129</v>
+        <v>0.63102665309133898</v>
       </c>
       <c r="D14" s="3">
         <v>74.4804603411161</v>
@@ -1050,7 +1050,7 @@
         <v>0.69599999999999995</v>
       </c>
       <c r="I14" s="2">
-        <v>2.0841740888000001E-2</v>
+        <v>3.1532511999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1061,7 +1061,7 @@
         <v>2.2612354312752099</v>
       </c>
       <c r="C15" s="2">
-        <v>0.364402676658441</v>
+        <v>0.65798596115310704</v>
       </c>
       <c r="D15" s="3">
         <v>76.255727542258697</v>
@@ -1079,7 +1079,7 @@
         <v>0.69599999999999995</v>
       </c>
       <c r="I15" s="2">
-        <v>2.0841740888000001E-2</v>
+        <v>3.1532511999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1090,7 +1090,7 @@
         <v>2.1593935493228198</v>
       </c>
       <c r="C16" s="2">
-        <v>0.38426036918618101</v>
+        <v>0.681081552477795</v>
       </c>
       <c r="D16" s="3">
         <v>77.939228349064408</v>
@@ -1108,7 +1108,7 @@
         <v>0.69599999999999995</v>
       </c>
       <c r="I16" s="2">
-        <v>2.0841740888000001E-2</v>
+        <v>3.1532511999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1119,7 +1119,7 @@
         <v>2.2472029995537999</v>
       </c>
       <c r="C17" s="2">
-        <v>0.36953747373655499</v>
+        <v>0.66671223446953798</v>
       </c>
       <c r="D17" s="3">
         <v>76.440427385262097</v>
@@ -1137,7 +1137,7 @@
         <v>0.69599999999999995</v>
       </c>
       <c r="I17" s="2">
-        <v>2.0841740888000001E-2</v>
+        <v>3.1532511999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1156,14 +1156,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1183,13 +1183,13 @@
         <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>76</v>
@@ -1203,7 +1203,7 @@
         <v>4.4323843434169898</v>
       </c>
       <c r="C2" s="2">
-        <v>0.55256076567004198</v>
+        <v>1.1726640053938</v>
       </c>
       <c r="D2" s="3">
         <v>15.7000821261948</v>
@@ -1232,7 +1232,7 @@
         <v>2.7671810009598601</v>
       </c>
       <c r="C3" s="2">
-        <v>0.328105347767286</v>
+        <v>0.69370165911747095</v>
       </c>
       <c r="D3" s="3">
         <v>22.853797899666301</v>
@@ -1261,7 +1261,7 @@
         <v>2.1074995991800902</v>
       </c>
       <c r="C4" s="2">
-        <v>0.28846899555674499</v>
+        <v>0.569203931124733</v>
       </c>
       <c r="D4" s="3">
         <v>19.922591693022802</v>
@@ -1290,7 +1290,7 @@
         <v>3.63938851301452</v>
       </c>
       <c r="C5" s="2">
-        <v>0.38146714671676002</v>
+        <v>0.85341308251304404</v>
       </c>
       <c r="D5" s="3">
         <v>26.483336662146499</v>
@@ -1327,14 +1327,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1354,13 +1354,13 @@
         <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>76</v>
@@ -1374,7 +1374,7 @@
         <v>3.2312537156106802</v>
       </c>
       <c r="C2" s="2">
-        <v>0.32682949026865099</v>
+        <v>0.71312562333172103</v>
       </c>
       <c r="D2" s="3">
         <v>43.144882078201299</v>
@@ -1392,7 +1392,7 @@
         <v>0.48560000000000003</v>
       </c>
       <c r="I2" s="2">
-        <v>3.5035985336000004E-2</v>
+        <v>6.1643880000000005E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1403,7 +1403,7 @@
         <v>2.8853517726640998</v>
       </c>
       <c r="C3" s="2">
-        <v>0.321874329698427</v>
+        <v>0.68057501993168201</v>
       </c>
       <c r="D3" s="3">
         <v>35.453478156382104</v>
@@ -1421,7 +1421,7 @@
         <v>0.48560000000000003</v>
       </c>
       <c r="I3" s="2">
-        <v>3.5035985336000004E-2</v>
+        <v>6.1643880000000005E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1432,7 +1432,7 @@
         <v>3.0569156358943199</v>
       </c>
       <c r="C4" s="2">
-        <v>0.31105810985061799</v>
+        <v>0.67411593313239104</v>
       </c>
       <c r="D4" s="3">
         <v>43.5316179917818</v>
@@ -1450,7 +1450,7 @@
         <v>0.48560000000000003</v>
       </c>
       <c r="I4" s="2">
-        <v>3.5035985336000004E-2</v>
+        <v>6.1643880000000005E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1461,7 +1461,7 @@
         <v>3.3980561247450201</v>
       </c>
       <c r="C5" s="2">
-        <v>0.36848312503150998</v>
+        <v>0.79073634733114895</v>
       </c>
       <c r="D5" s="3">
         <v>36.756223616207102</v>
@@ -1479,7 +1479,7 @@
         <v>0.48560000000000003</v>
       </c>
       <c r="I5" s="2">
-        <v>3.5035985336000004E-2</v>
+        <v>6.1643880000000005E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1490,7 +1490,7 @@
         <v>2.65919999927383</v>
       </c>
       <c r="C6" s="2">
-        <v>0.28451110654731798</v>
+        <v>0.60321507303366195</v>
       </c>
       <c r="D6" s="3">
         <v>49.5191447486134</v>
@@ -1508,7 +1508,7 @@
         <v>0.39839999999999998</v>
       </c>
       <c r="I6" s="2">
-        <v>2.5276451679999999E-2</v>
+        <v>3.5913144000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1519,7 +1519,7 @@
         <v>2.3043384787899002</v>
       </c>
       <c r="C7" s="2">
-        <v>0.260798813220324</v>
+        <v>0.54374185276083897</v>
       </c>
       <c r="D7" s="3">
         <v>45.3464143404019</v>
@@ -1537,7 +1537,7 @@
         <v>0.39839999999999998</v>
       </c>
       <c r="I7" s="2">
-        <v>2.5276451679999999E-2</v>
+        <v>3.5913144000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1548,7 +1548,7 @@
         <v>3.0703870419543899</v>
       </c>
       <c r="C8" s="2">
-        <v>0.29887968019347499</v>
+        <v>0.65462832964435402</v>
       </c>
       <c r="D8" s="3">
         <v>51.6162339066192</v>
@@ -1566,7 +1566,7 @@
         <v>0.39839999999999998</v>
       </c>
       <c r="I8" s="2">
-        <v>2.5276451679999999E-2</v>
+        <v>3.5913144000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1577,7 +1577,7 @@
         <v>2.9089361063485</v>
       </c>
       <c r="C9" s="2">
-        <v>0.29841184550941302</v>
+        <v>0.64798909854786102</v>
       </c>
       <c r="D9" s="3">
         <v>45.179689398045198</v>
@@ -1595,7 +1595,7 @@
         <v>0.39839999999999998</v>
       </c>
       <c r="I9" s="2">
-        <v>2.5276451679999999E-2</v>
+        <v>3.5913144000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1606,7 +1606,7 @@
         <v>2.01139779873278</v>
       </c>
       <c r="C10" s="2">
-        <v>0.248922888511518</v>
+        <v>0.492934872282283</v>
       </c>
       <c r="D10" s="3">
         <v>60.170828266502994</v>
@@ -1624,7 +1624,7 @@
         <v>0.25046000000000002</v>
       </c>
       <c r="I10" s="2">
-        <v>2.3503017447999999E-2</v>
+        <v>3.4404167999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1635,7 +1635,7 @@
         <v>1.5266533683134</v>
       </c>
       <c r="C11" s="2">
-        <v>0.23449819521263601</v>
+        <v>0.43964008848263603</v>
       </c>
       <c r="D11" s="3">
         <v>59.626113077995903</v>
@@ -1653,7 +1653,7 @@
         <v>0.25046000000000002</v>
       </c>
       <c r="I11" s="2">
-        <v>2.3503017447999999E-2</v>
+        <v>3.4404167999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1664,7 +1664,7 @@
         <v>1.68203574125582</v>
       </c>
       <c r="C12" s="2">
-        <v>0.24095610081451199</v>
+        <v>0.45678020501601602</v>
       </c>
       <c r="D12" s="3">
         <v>60.282009849184405</v>
@@ -1682,7 +1682,7 @@
         <v>0.25046000000000002</v>
       </c>
       <c r="I12" s="2">
-        <v>2.3503017447999999E-2</v>
+        <v>3.4404167999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
         <v>2.5962094787268599</v>
       </c>
       <c r="C13" s="2">
-        <v>0.26222530489919899</v>
+        <v>0.56141378651483798</v>
       </c>
       <c r="D13" s="3">
         <v>59.432716140511701</v>
@@ -1711,7 +1711,7 @@
         <v>0.25046000000000002</v>
       </c>
       <c r="I13" s="2">
-        <v>2.3503017447999999E-2</v>
+        <v>3.4404167999999999E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1723,21 +1723,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E343965B-E730-4643-9024-557E453EFB10}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1757,13 +1757,13 @@
         <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>76</v>
@@ -1777,7 +1777,7 @@
         <v>2.9978716313724401</v>
       </c>
       <c r="C2" s="2">
-        <v>0.43887074262364101</v>
+        <v>0.85407442560959201</v>
       </c>
       <c r="D2" s="3">
         <v>16.603034848160199</v>
@@ -1806,7 +1806,7 @@
         <v>3.23391467959331</v>
       </c>
       <c r="C3" s="2">
-        <v>0.41769413519267601</v>
+        <v>0.84214983942314203</v>
       </c>
       <c r="D3" s="3">
         <v>22.4243482309125</v>
@@ -1835,7 +1835,7 @@
         <v>3.3593211608877702</v>
       </c>
       <c r="C4" s="2">
-        <v>0.48504641182569902</v>
+        <v>0.96309603452150805</v>
       </c>
       <c r="D4" s="3">
         <v>16.5268782820091</v>
@@ -1864,7 +1864,7 @@
         <v>2.9570109867005399</v>
       </c>
       <c r="C5" s="2">
-        <v>0.38319596467900202</v>
+        <v>0.77242135708988702</v>
       </c>
       <c r="D5" s="3">
         <v>18.9457480381793</v>
@@ -1893,7 +1893,7 @@
         <v>3.3273134771390902</v>
       </c>
       <c r="C6" s="2">
-        <v>0.375716318969396</v>
+        <v>0.79005004879287399</v>
       </c>
       <c r="D6" s="3">
         <v>34.164912655072399</v>
@@ -1922,7 +1922,7 @@
         <v>2.9095119825667002</v>
       </c>
       <c r="C7" s="2">
-        <v>0.34323214787050599</v>
+        <v>0.69978978505933398</v>
       </c>
       <c r="D7" s="3">
         <v>38.058149597654399</v>
@@ -1951,7 +1951,7 @@
         <v>3.2514764436003301</v>
       </c>
       <c r="C8" s="2">
-        <v>0.36288608864052802</v>
+        <v>0.77338609908475298</v>
       </c>
       <c r="D8" s="3">
         <v>33.541385087286201</v>
@@ -1980,7 +1980,7 @@
         <v>3.7723225779829499</v>
       </c>
       <c r="C9" s="2">
-        <v>0.389669355363915</v>
+        <v>0.84861132349459301</v>
       </c>
       <c r="D9" s="3">
         <v>39.106962499592704</v>
@@ -2009,7 +2009,7 @@
         <v>2.0853059794257298</v>
       </c>
       <c r="C10" s="2">
-        <v>0.23887789864982001</v>
+        <v>0.48850018432918102</v>
       </c>
       <c r="D10" s="3">
         <v>40.694117113850595</v>
@@ -2038,7 +2038,7 @@
         <v>3.1736581492044</v>
       </c>
       <c r="C11" s="2">
-        <v>0.292752937511293</v>
+        <v>0.65292367588730005</v>
       </c>
       <c r="D11" s="3">
         <v>51.483235095178301</v>
@@ -2067,7 +2067,7 @@
         <v>3.1337925582822099</v>
       </c>
       <c r="C12" s="2">
-        <v>0.31323917674555002</v>
+        <v>0.68262543668620002</v>
       </c>
       <c r="D12" s="3">
         <v>43.653771635236396</v>
@@ -2096,7 +2096,7 @@
         <v>3.3259646415536799</v>
       </c>
       <c r="C13" s="2">
-        <v>0.31364821404779097</v>
+        <v>0.69353983054967605</v>
       </c>
       <c r="D13" s="3">
         <v>52.168191664780608</v>
@@ -2125,7 +2125,7 @@
         <v>2.89886251286004</v>
       </c>
       <c r="C14" s="2">
-        <v>0.34637876121795602</v>
+        <v>0.67042038462403797</v>
       </c>
       <c r="D14" s="3">
         <v>73.442356254856307</v>
@@ -2154,7 +2154,7 @@
         <v>3.8511785405868499</v>
       </c>
       <c r="C15" s="2">
-        <v>0.493887021901663</v>
+        <v>0.91775545271242698</v>
       </c>
       <c r="D15" s="3">
         <v>80.764207844602794</v>
@@ -2183,7 +2183,7 @@
         <v>3.03460840644893</v>
       </c>
       <c r="C16" s="2">
-        <v>0.402729375657707</v>
+        <v>0.76031849802530604</v>
       </c>
       <c r="D16" s="3">
         <v>76.081283637644006</v>
@@ -2212,7 +2212,7 @@
         <v>3.8100674548418998</v>
       </c>
       <c r="C17" s="2">
-        <v>0.49195655147435302</v>
+        <v>0.91098422053801198</v>
       </c>
       <c r="D17" s="3">
         <v>80.526194899238007</v>
@@ -2242,21 +2242,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A63D46F-2F51-4200-B9FF-16DF45144FBA}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2277,13 +2277,13 @@
         <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>76</v>
@@ -2297,7 +2297,7 @@
         <v>3.4011552588881</v>
       </c>
       <c r="C2" s="2">
-        <v>0.38289587055968599</v>
+        <v>0.88116746796235701</v>
       </c>
       <c r="D2" s="3">
         <v>35.416010911761596</v>
@@ -2315,7 +2315,7 @@
         <v>0.40268320000000002</v>
       </c>
       <c r="I2" s="4">
-        <v>9.2828959999999999E-4</v>
+        <v>1.8565792E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2326,7 +2326,7 @@
         <v>3.1103164576056002</v>
       </c>
       <c r="C3" s="2">
-        <v>0.34696070691063502</v>
+        <v>0.79673023479713501</v>
       </c>
       <c r="D3" s="3">
         <v>30.4082792207792</v>
@@ -2344,7 +2344,7 @@
         <v>0.40268320000000002</v>
       </c>
       <c r="I3" s="4">
-        <v>9.2828959999999999E-4</v>
+        <v>1.8565792E-3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2355,7 +2355,7 @@
         <v>3.3437705291375499</v>
       </c>
       <c r="C4" s="2">
-        <v>0.38992234226765998</v>
+        <v>0.893230228048567</v>
       </c>
       <c r="D4" s="3">
         <v>34.343665892321702</v>
@@ -2373,7 +2373,7 @@
         <v>0.40268320000000002</v>
       </c>
       <c r="I4" s="4">
-        <v>9.2828959999999999E-4</v>
+        <v>1.8565792E-3</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2384,7 +2384,7 @@
         <v>2.5615516094735198</v>
       </c>
       <c r="C5" s="2">
-        <v>0.28155504610777898</v>
+        <v>0.66293348614850101</v>
       </c>
       <c r="D5" s="3">
         <v>30.581388608244904</v>
@@ -2402,7 +2402,7 @@
         <v>0.40268320000000002</v>
       </c>
       <c r="I5" s="4">
-        <v>9.2828959999999999E-4</v>
+        <v>1.8565792E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2421,14 +2421,14 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2449,13 +2449,13 @@
         <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>76</v>
@@ -2469,7 +2469,7 @@
         <v>3.0781829752740499</v>
       </c>
       <c r="C2" s="2">
-        <v>0.361838788109833</v>
+        <v>0.81938073695317504</v>
       </c>
       <c r="D2" s="3">
         <v>11.176830981698201</v>
@@ -2487,7 +2487,7 @@
         <v>2.6880000000000002</v>
       </c>
       <c r="I2" s="2">
-        <v>3.9605738816000005E-2</v>
+        <v>5.6559136000000003E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2498,7 +2498,7 @@
         <v>2.5926118190224199</v>
       </c>
       <c r="C3" s="2">
-        <v>0.32033079637816497</v>
+        <v>0.73024676919562603</v>
       </c>
       <c r="D3" s="3">
         <v>12.3405223025122</v>
@@ -2516,7 +2516,7 @@
         <v>2.6880000000000002</v>
       </c>
       <c r="I3" s="2">
-        <v>3.9605738816000005E-2</v>
+        <v>5.6559136000000003E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2527,7 +2527,7 @@
         <v>2.4942110780779498</v>
       </c>
       <c r="C4" s="2">
-        <v>0.299332660816993</v>
+        <v>0.68062863540394603</v>
       </c>
       <c r="D4" s="3">
         <v>11.684336132911099</v>
@@ -2545,7 +2545,7 @@
         <v>2.6880000000000002</v>
       </c>
       <c r="I4" s="2">
-        <v>3.9605738816000005E-2</v>
+        <v>5.6559136000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2556,7 +2556,7 @@
         <v>2.7140971820181101</v>
       </c>
       <c r="C5" s="2">
-        <v>0.32765421702869502</v>
+        <v>0.74900096550289996</v>
       </c>
       <c r="D5" s="3">
         <v>12.8023404598929</v>
@@ -2574,7 +2574,7 @@
         <v>2.6880000000000002</v>
       </c>
       <c r="I5" s="2">
-        <v>3.9605738816000005E-2</v>
+        <v>5.6559136000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2585,7 +2585,7 @@
         <v>2.8029810314777799</v>
       </c>
       <c r="C6" s="2">
-        <v>0.238970509934394</v>
+        <v>0.61218116277255197</v>
       </c>
       <c r="D6" s="3">
         <v>22.008400224591501</v>
@@ -2603,7 +2603,7 @@
         <v>2.3344</v>
       </c>
       <c r="I6" s="2">
-        <v>3.2785599999999998E-2</v>
+        <v>5.1618415999999993E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2614,7 +2614,7 @@
         <v>1.99895189769815</v>
       </c>
       <c r="C7" s="2">
-        <v>0.19392942115966799</v>
+        <v>0.46891371685512401</v>
       </c>
       <c r="D7" s="3">
         <v>28.834539649247599</v>
@@ -2632,7 +2632,7 @@
         <v>2.3344</v>
       </c>
       <c r="I7" s="2">
-        <v>3.2785599999999998E-2</v>
+        <v>5.1618415999999993E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2643,7 +2643,7 @@
         <v>2.5252228955968001</v>
       </c>
       <c r="C8" s="2">
-        <v>0.22270345380040499</v>
+        <v>0.54931453595709001</v>
       </c>
       <c r="D8" s="3">
         <v>26.214508874926999</v>
@@ -2661,7 +2661,7 @@
         <v>2.3344</v>
       </c>
       <c r="I8" s="2">
-        <v>3.2785599999999998E-2</v>
+        <v>5.1618415999999993E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2672,7 +2672,7 @@
         <v>1.82695275184573</v>
       </c>
       <c r="C9" s="2">
-        <v>0.17754060950589501</v>
+        <v>0.43079227219124999</v>
       </c>
       <c r="D9" s="3">
         <v>26.629544967947499</v>
@@ -2690,7 +2690,7 @@
         <v>2.3344</v>
       </c>
       <c r="I9" s="2">
-        <v>3.2785599999999998E-2</v>
+        <v>5.1618415999999993E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2701,7 +2701,7 @@
         <v>3.3532565858458301</v>
       </c>
       <c r="C10" s="2">
-        <v>0.23561650865719899</v>
+        <v>0.63126960923361697</v>
       </c>
       <c r="D10" s="3">
         <v>42.494236107843605</v>
@@ -2719,7 +2719,7 @@
         <v>2.1680000000000001</v>
       </c>
       <c r="I10" s="2">
-        <v>3.2263608751999996E-2</v>
+        <v>5.0956056E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2730,7 +2730,7 @@
         <v>2.1925701578371801</v>
       </c>
       <c r="C11" s="2">
-        <v>0.176533001206959</v>
+        <v>0.43258253801090102</v>
       </c>
       <c r="D11" s="3">
         <v>44.608315550354497</v>
@@ -2748,7 +2748,7 @@
         <v>2.1680000000000001</v>
       </c>
       <c r="I11" s="2">
-        <v>3.2263608751999996E-2</v>
+        <v>5.0956056E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2759,7 +2759,7 @@
         <v>2.65469906515357</v>
       </c>
       <c r="C12" s="2">
-        <v>0.20743570353688401</v>
+        <v>0.50307636666345301</v>
       </c>
       <c r="D12" s="3">
         <v>47.1591122695773</v>
@@ -2777,7 +2777,7 @@
         <v>2.1680000000000001</v>
       </c>
       <c r="I12" s="2">
-        <v>3.2263608751999996E-2</v>
+        <v>5.0956056E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2788,7 +2788,7 @@
         <v>2.4790052324302199</v>
       </c>
       <c r="C13" s="2">
-        <v>0.19778981672205401</v>
+        <v>0.50247562802954004</v>
       </c>
       <c r="D13" s="3">
         <v>44.917095483133203</v>
@@ -2806,7 +2806,7 @@
         <v>2.1680000000000001</v>
       </c>
       <c r="I13" s="2">
-        <v>3.2263608751999996E-2</v>
+        <v>5.0956056E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2817,7 +2817,7 @@
         <v>2.0461971113728401</v>
       </c>
       <c r="C14" s="2">
-        <v>0.227779675429295</v>
+        <v>0.50076498617033305</v>
       </c>
       <c r="D14" s="3">
         <v>65.361849300087499</v>
@@ -2835,7 +2835,7 @@
         <v>2.1232000000000002</v>
       </c>
       <c r="I14" s="2">
-        <v>3.1562156144E-2</v>
+        <v>4.9717184000000005E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2846,7 +2846,7 @@
         <v>1.5745131436988999</v>
       </c>
       <c r="C15" s="2">
-        <v>0.220060081828547</v>
+        <v>0.46344455866759199</v>
       </c>
       <c r="D15" s="3">
         <v>66.240632910597299</v>
@@ -2864,7 +2864,7 @@
         <v>2.1232000000000002</v>
       </c>
       <c r="I15" s="2">
-        <v>3.1562156144E-2</v>
+        <v>4.9717184000000005E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2875,7 +2875,7 @@
         <v>1.6417527618812</v>
       </c>
       <c r="C16" s="2">
-        <v>0.21998667258031701</v>
+        <v>0.46442063479137002</v>
       </c>
       <c r="D16" s="3">
         <v>65.058434538323695</v>
@@ -2893,7 +2893,7 @@
         <v>2.1232000000000002</v>
       </c>
       <c r="I16" s="2">
-        <v>3.1562156144E-2</v>
+        <v>4.9717184000000005E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2904,7 +2904,7 @@
         <v>1.7129215470261101</v>
       </c>
       <c r="C17" s="2">
-        <v>0.23389122277401</v>
+        <v>0.493807209603014</v>
       </c>
       <c r="D17" s="3">
         <v>67.582995983365308</v>
@@ -2922,7 +2922,7 @@
         <v>2.1232000000000002</v>
       </c>
       <c r="I17" s="2">
-        <v>3.1562156144E-2</v>
+        <v>4.9717184000000005E-2</v>
       </c>
     </row>
   </sheetData>
